--- a/TMP/books_scraping/books_scraping.xlsx
+++ b/TMP/books_scraping/books_scraping.xlsx
@@ -1,63 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All books" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Travel" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Mystery" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Historical fiction" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sequential art" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Classics" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Philosophy" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Romance" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Womens fiction" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Fiction" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Childrens" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Religion" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nonfiction" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Music" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Default" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Science fiction" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Sports and games" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Add a comment" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Fantasy" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="New adult" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Young adult" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Science" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Poetry" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Paranormal" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Art" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Psychology" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Autobiography" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Parenting" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Adult fiction" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Humor" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Horror" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="History" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="Food and drink" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Christian fiction" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Business" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Biography" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Thriller" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Contemporary" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Spirituality" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Academic" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Self help" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Historical" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Christian" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Suspense" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Short stories" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Novels" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Health" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Politics" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Cultural" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Erotica" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Crime" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="All books" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Travel" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mystery" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical fiction" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sequential art" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Philosophy" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Romance" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Womens fiction" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fiction" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Childrens" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Religion" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nonfiction" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Music" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Default" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Science fiction" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sports and games" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Add a comment" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fantasy" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New adult" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Young adult" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Science" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Poetry" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paranormal" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Art" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Psychology" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Autobiography" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parenting" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adult fiction" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Humor" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Horror" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Food and drink" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Christian fiction" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Business" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biography" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thriller" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contemporary" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spirituality" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Academic" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Self help" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Christian" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Suspense" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Short stories" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Novels" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Health" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Politics" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cultural" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Erotica" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Crime" sheetId="51" state="visible" r:id="rId51"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
